--- a/CasesMalashenko.xlsx
+++ b/CasesMalashenko.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Евгения\Desktop\netology\Тестирование\ДИПЛОМ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects with JaCoCo\QAdiplom2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9850F65D-C0C6-4D0C-A247-E85FAE26A812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660FB950-5357-42A0-A0FF-A024523DB6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="258">
   <si>
     <t>ID</t>
   </si>
@@ -473,9 +473,6 @@
     <t>баг : дата публикации отображается неверно</t>
   </si>
   <si>
-    <t xml:space="preserve">для более точного тестирования необходимо тех. Задание, какие симвлы допустимы и какое их количество </t>
-  </si>
-  <si>
     <t>3. Нажать на кнопку "Отмена"</t>
   </si>
   <si>
@@ -584,39 +581,6 @@
     <t>20. Кнопка "Сохранить" нажимается, новость появляется в списке новостей</t>
   </si>
   <si>
-    <t>21. Нажать на значок "редактирования (карандашик в квадрате" под новостью</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21. Открывается новость на редактирование , отображается кнопка "активна" /"не активна"   с бегунком </t>
-  </si>
-  <si>
-    <t>22. Нажать на бегунок кнопки "активна"/"неактивна" и перевести в состояние не активна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22. При нажатии бегунка меняется значение активности </t>
-  </si>
-  <si>
-    <t>23. Нажать "Сохранить"</t>
-  </si>
-  <si>
-    <t>23. Данные сохарняются и отображаются в публикации</t>
-  </si>
-  <si>
-    <t>24. Нажать на значок "корзина"</t>
-  </si>
-  <si>
-    <t>24. Выскакивает сообщение""Вы уверены, что безвозвратно хотите удалить документ? Данные изменения нельзя будет отменить в будущем"</t>
-  </si>
-  <si>
-    <t>25. Нажать "отмена"/нажать "ок"</t>
-  </si>
-  <si>
-    <t>25. Новость не удаляется, возвращается список с новостями /новость удаляется</t>
-  </si>
-  <si>
-    <t>Создание, удаление новой новости  и ее редактирование в панели управление новостей</t>
-  </si>
-  <si>
     <t>Навигация по приложению: раздел "О приложении"</t>
   </si>
   <si>
@@ -714,6 +678,160 @@
   </si>
   <si>
     <t>2.Отображается экран авторизации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">для более точного тестирования необходимо тех. Задание, какие символы допустимы и какое их количество </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наличие мобильного устройства с ОС Android с установленным приложением и авторизацией (логин: login2, пароль: password2). Раздел новости открыт </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наличие мобильного устройства с ОС Android с установленным приложением и авторизацией (логин: login2, пароль: password2). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Нажать на значок редактирования  </t>
+  </si>
+  <si>
+    <t>2. Открывается раздел "Панель управления"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажать на "Новости" </t>
+  </si>
+  <si>
+    <t>1. Происходит переход на вкладку "новости" и новости отображаются</t>
+  </si>
+  <si>
+    <t>3. Нажать на значок "корзина"</t>
+  </si>
+  <si>
+    <t>3. Выскакивает сообщение "Вы уверены, что безвозвратно хотите удалить документ? Данные изменения нельзя будет отменить в будущем"</t>
+  </si>
+  <si>
+    <t>4. Нажать "отмена"/нажать "ок"</t>
+  </si>
+  <si>
+    <t>4. Новость не удаляется, возвращается список с новостями /новость удаляется</t>
+  </si>
+  <si>
+    <t>Удаление новости в панели управления новостей</t>
+  </si>
+  <si>
+    <t>Создание новой новости в панели управления новостей</t>
+  </si>
+  <si>
+    <t>Редактирование новости в панели управления новостей</t>
+  </si>
+  <si>
+    <t>2. Нажать на значок "редактирования (карандашик в квадрате" под новостью</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Открывается новость на редактирование , отображается кнопка "активна" /"не активна"   с бегунком </t>
+  </si>
+  <si>
+    <t>3. Нажать на бегунок кнопки "активна"/"неактивна" и перевести в состояние не активна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. При нажатии бегунка меняется значение активности </t>
+  </si>
+  <si>
+    <t>4. Нажать "Сохранить"</t>
+  </si>
+  <si>
+    <t>4. Данные сохарняются и отображаются в публикации</t>
+  </si>
+  <si>
+    <t>Ввод в поле "категория" текста вручную, не выбирая имеющиеся</t>
+  </si>
+  <si>
+    <t>3. Ввести в поле "категория текст, отличный от имеющихся вариантов на латинице, кириллице, с цифрами и символами</t>
+  </si>
+  <si>
+    <t>3. Текст вводится</t>
+  </si>
+  <si>
+    <t>4. Заполнить остальные поля валидными данными</t>
+  </si>
+  <si>
+    <t>4. Все поля заполнены</t>
+  </si>
+  <si>
+    <t>5. Нажать на кнопку "Сохранить"</t>
+  </si>
+  <si>
+    <t>5. Всплывает уведомление "Сохранение не удалось. Попробуйте позднее"</t>
+  </si>
+  <si>
+    <r>
+      <t>Наличие мобильного устройства с ОС Android с установленным приложением и авторизацией (логин: login2, пароль: password2).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Раздел новости открыт </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Создание новости с пустыми полями </t>
+  </si>
+  <si>
+    <t>высоий</t>
+  </si>
+  <si>
+    <t>2. Оставить все поля пустыми</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Поля пустые </t>
+  </si>
+  <si>
+    <t>3. Нажать на кнопку "Сохранить"</t>
+  </si>
+  <si>
+    <t>3. Во всех полях загорается красный восклицательный знак в кружке и всплывает уведомление "заполните пустые поля"</t>
+  </si>
+  <si>
+    <t>негативный тест</t>
+  </si>
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>2. Нажать на поле "время"</t>
+  </si>
+  <si>
+    <t>2.Открывается циферблат с часами</t>
+  </si>
+  <si>
+    <t>Выбор несуществующего времени вручную при создании новости в разделе "новости"</t>
+  </si>
+  <si>
+    <t>3. Нажать на значок "клавиатура" в нижней части под циферблатом</t>
+  </si>
+  <si>
+    <t>3. Отображается поле для ввода времени цифрами</t>
+  </si>
+  <si>
+    <t>4. Ввести недопустимые значения времени, например 88:88</t>
+  </si>
+  <si>
+    <t>4.Значения в поля подставляются</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Нажать на "ОК" </t>
+  </si>
+  <si>
+    <t>5. В поле выскакивает красное предупреждение "Указано недопустимое время."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Планируется </t>
+  </si>
+  <si>
+    <t>Автоматизация</t>
   </si>
 </sst>
 </file>
@@ -792,7 +910,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,8 +983,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1085,10 +1209,10 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1097,13 +1221,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1113,9 +1259,7 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1126,8 +1270,107 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
@@ -1140,10 +1383,10 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1153,7 +1396,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1182,17 +1425,141 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1203,25 +1570,61 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1230,136 +1633,52 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1371,34 +1690,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1692,13 +2002,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E32" sqref="E32:E34"/>
+      <selection pane="bottomRight" activeCell="D113" sqref="D113:D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1710,21 +2020,22 @@
     <col min="6" max="6" width="22.109375" customWidth="1"/>
     <col min="7" max="7" width="26.6640625" customWidth="1"/>
     <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+    </row>
+    <row r="2" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1749,1635 +2060,2054 @@
       <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A3" s="34">
+      <c r="I2" s="37" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A3" s="64">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="74" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="35" t="s">
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A4" s="65"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="20"/>
-    </row>
-    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="35" t="s">
+      <c r="H4" s="75"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="A5" s="65"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="20"/>
-    </row>
-    <row r="6" spans="1:8" ht="66.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="35" t="s">
+      <c r="H5" s="75"/>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A6" s="65"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:8" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="35" t="s">
+      <c r="H6" s="75"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="65"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:8" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="35" t="s">
+      <c r="H7" s="75"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="66"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="1:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38">
+      <c r="H8" s="83"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="77">
         <v>2</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="74" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="35" t="s">
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="77"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="1:8" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="35" t="s">
+      <c r="H10" s="75"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A11" s="77"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" spans="1:8" ht="66.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="35" t="s">
+      <c r="H11" s="75"/>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A12" s="77"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="20"/>
-    </row>
-    <row r="13" spans="1:8" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="35" t="s">
+      <c r="H12" s="75"/>
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A13" s="77"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
+      <c r="H13" s="75"/>
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="54"/>
-    </row>
-    <row r="15" spans="1:8" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="38">
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="28"/>
+    </row>
+    <row r="15" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="77">
         <v>3</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="74" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="39" t="s">
+      <c r="I15" s="46" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="77"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="39" t="s">
+      <c r="H16" s="75"/>
+      <c r="I16" s="47"/>
+    </row>
+    <row r="17" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="77"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="20"/>
-    </row>
-    <row r="18" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="39" t="s">
+      <c r="H17" s="75"/>
+      <c r="I17" s="47"/>
+    </row>
+    <row r="18" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="77"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="20"/>
-    </row>
-    <row r="19" spans="1:8" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="38">
+      <c r="H18" s="75"/>
+      <c r="I18" s="48"/>
+    </row>
+    <row r="19" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="77">
         <v>4</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="55" t="s">
+      <c r="H19" s="84" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="38"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="39" t="s">
+      <c r="I19" s="28"/>
+    </row>
+    <row r="20" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="77"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="56"/>
-    </row>
-    <row r="21" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="38"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="39" t="s">
+      <c r="H20" s="85"/>
+      <c r="I20" s="28"/>
+    </row>
+    <row r="21" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="77"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="40" t="s">
+      <c r="G21" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="56"/>
-    </row>
-    <row r="22" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="38"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="39" t="s">
+      <c r="H21" s="85"/>
+      <c r="I21" s="28"/>
+    </row>
+    <row r="22" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="77"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="57"/>
-    </row>
-    <row r="23" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34">
+      <c r="H22" s="86"/>
+      <c r="I22" s="28"/>
+    </row>
+    <row r="23" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="64">
         <v>5</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="41" t="s">
+      <c r="G23" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="58" t="s">
+      <c r="H23" s="87" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="42" t="s">
+      <c r="I23" s="55" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="A24" s="65"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="42" t="s">
+      <c r="G24" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="59"/>
-    </row>
-    <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="42" t="s">
+      <c r="H24" s="88"/>
+      <c r="I24" s="56"/>
+    </row>
+    <row r="25" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="A25" s="65"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="42" t="s">
+      <c r="G25" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="59"/>
-    </row>
-    <row r="26" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="42" t="s">
+      <c r="H25" s="88"/>
+      <c r="I25" s="56"/>
+    </row>
+    <row r="26" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="A26" s="65"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="43" t="s">
+      <c r="G26" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="59"/>
-    </row>
-    <row r="27" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A27" s="36"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="42" t="s">
+      <c r="H26" s="88"/>
+      <c r="I26" s="56"/>
+    </row>
+    <row r="27" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="A27" s="65"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="59"/>
-    </row>
-    <row r="28" spans="1:8" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="42" t="s">
+      <c r="H27" s="88"/>
+      <c r="I27" s="56"/>
+    </row>
+    <row r="28" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A28" s="66"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="42" t="s">
+      <c r="G28" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="H28" s="60"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="53" t="s">
+      <c r="H28" s="89"/>
+      <c r="I28" s="57"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="54"/>
-    </row>
-    <row r="30" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A30" s="44">
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="28"/>
+    </row>
+    <row r="30" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A30" s="90">
         <v>6</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30" t="s">
+      <c r="C30" s="91"/>
+      <c r="D30" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="45" t="s">
+      <c r="F30" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="45" t="s">
+      <c r="G30" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="61" t="s">
+      <c r="H30" s="92" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A31" s="36"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="42" t="s">
+      <c r="I30" s="46" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="A31" s="65"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="G31" s="42" t="s">
+      <c r="G31" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H31" s="62"/>
-    </row>
-    <row r="32" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A32" s="34">
+      <c r="H31" s="94"/>
+      <c r="I31" s="48"/>
+    </row>
+    <row r="32" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A32" s="64">
         <v>7</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19" t="s">
+      <c r="C32" s="71"/>
+      <c r="D32" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="41" t="s">
+      <c r="F32" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="41" t="s">
+      <c r="G32" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="H32" s="63" t="s">
+      <c r="H32" s="95" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="36"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="42" t="s">
+      <c r="I32" s="28"/>
+    </row>
+    <row r="33" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="65"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="G33" s="42" t="s">
+      <c r="G33" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="H33" s="64"/>
-    </row>
-    <row r="34" spans="1:8" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A34" s="37"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="42" t="s">
+      <c r="H33" s="93"/>
+      <c r="I33" s="28"/>
+    </row>
+    <row r="34" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A34" s="66"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="G34" s="42" t="s">
+      <c r="G34" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="H34" s="64"/>
-    </row>
-    <row r="35" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A35" s="34">
+      <c r="H34" s="93"/>
+      <c r="I34" s="28"/>
+    </row>
+    <row r="35" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A35" s="64">
         <v>8</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19" t="s">
+      <c r="C35" s="71"/>
+      <c r="D35" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="41" t="s">
+      <c r="F35" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="41" t="s">
+      <c r="G35" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="H35" s="61" t="s">
+      <c r="H35" s="92" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="42" t="s">
+      <c r="I35" s="46"/>
+    </row>
+    <row r="36" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="66"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="G36" s="42" t="s">
+      <c r="G36" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="H36" s="62"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="53" t="s">
+      <c r="H36" s="94"/>
+      <c r="I36" s="48"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="54"/>
-    </row>
-    <row r="38" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A38" s="46">
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="28"/>
+    </row>
+    <row r="38" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A38" s="68">
         <v>9</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14" t="s">
+      <c r="C38" s="58"/>
+      <c r="D38" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="47" t="s">
+      <c r="F38" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G38" s="48" t="s">
+      <c r="G38" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="H38" s="61" t="s">
+      <c r="H38" s="92" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A39" s="49"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="50" t="s">
+      <c r="I38" s="46" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A39" s="69"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="G39" s="51" t="s">
+      <c r="G39" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="H39" s="64"/>
-    </row>
-    <row r="40" spans="1:8" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A40" s="52"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="50" t="s">
+      <c r="H39" s="93"/>
+      <c r="I39" s="47"/>
+    </row>
+    <row r="40" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A40" s="70"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G40" s="51" t="s">
+      <c r="G40" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="H40" s="64"/>
-    </row>
-    <row r="41" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="65">
+      <c r="H40" s="93"/>
+      <c r="I40" s="48"/>
+    </row>
+    <row r="41" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="52">
         <v>10</v>
       </c>
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="65" t="s">
+      <c r="D41" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="28" t="s">
+      <c r="F41" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G41" s="29" t="s">
+      <c r="G41" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="H41" s="61" t="s">
+      <c r="H41" s="92" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="66"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="13"/>
+      <c r="I41" s="28"/>
+    </row>
+    <row r="42" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="53"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="96"/>
       <c r="F42" s="8" t="s">
         <v>95</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="H42" s="64"/>
-    </row>
-    <row r="43" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="67"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="13"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="28"/>
+    </row>
+    <row r="43" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="54"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="96"/>
       <c r="F43" s="8" t="s">
         <v>97</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H43" s="64"/>
-    </row>
-    <row r="44" spans="1:8" ht="66.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A44" s="65">
+      <c r="H43" s="93"/>
+      <c r="I43" s="28"/>
+    </row>
+    <row r="44" spans="1:9" ht="66.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A44" s="52">
         <v>11</v>
       </c>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="65" t="s">
+      <c r="C44" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="65" t="s">
+      <c r="D44" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="F44" s="28" t="s">
+      <c r="F44" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G44" s="29" t="s">
+      <c r="G44" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="H44" s="64" t="s">
+      <c r="H44" s="93" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A45" s="66"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="28" t="s">
+      <c r="I44" s="28"/>
+    </row>
+    <row r="45" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G45" s="29" t="s">
+      <c r="G45" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="H45" s="64"/>
-    </row>
-    <row r="46" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="66"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="15"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="28"/>
+    </row>
+    <row r="46" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="53"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="59"/>
       <c r="F46" s="8" t="s">
         <v>107</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="H46" s="64"/>
-    </row>
-    <row r="47" spans="1:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="66"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="15"/>
+      <c r="H46" s="93"/>
+      <c r="I46" s="28"/>
+    </row>
+    <row r="47" spans="1:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="53"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="59"/>
       <c r="F47" s="8" t="s">
         <v>109</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H47" s="64"/>
-    </row>
-    <row r="48" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="66"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="15"/>
+      <c r="H47" s="93"/>
+      <c r="I47" s="28"/>
+    </row>
+    <row r="48" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="53"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="59"/>
       <c r="F48" s="8" t="s">
         <v>111</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H48" s="64"/>
-    </row>
-    <row r="49" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="66"/>
-      <c r="B49" s="66"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="15"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="28"/>
+    </row>
+    <row r="49" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="53"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="59"/>
       <c r="F49" s="8" t="s">
         <v>113</v>
       </c>
       <c r="G49" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H49" s="64"/>
-    </row>
-    <row r="50" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="66"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="15"/>
+      <c r="H49" s="93"/>
+      <c r="I49" s="28"/>
+    </row>
+    <row r="50" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="53"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="59"/>
       <c r="F50" s="8" t="s">
         <v>115</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="H50" s="64"/>
-    </row>
-    <row r="51" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="66"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="15"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="28"/>
+    </row>
+    <row r="51" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="53"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="59"/>
       <c r="F51" s="8" t="s">
         <v>117</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="H51" s="64"/>
-    </row>
-    <row r="52" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="66"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="15"/>
+      <c r="H51" s="93"/>
+      <c r="I51" s="28"/>
+    </row>
+    <row r="52" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="53"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="59"/>
       <c r="F52" s="8" t="s">
         <v>119</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H52" s="64"/>
-    </row>
-    <row r="53" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="66"/>
-      <c r="B53" s="66"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="26" t="s">
+      <c r="H52" s="93"/>
+      <c r="I52" s="28"/>
+    </row>
+    <row r="53" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="53"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G53" s="27" t="s">
+      <c r="G53" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="H53" s="64"/>
-    </row>
-    <row r="54" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="66"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="26" t="s">
+      <c r="H53" s="93"/>
+      <c r="I53" s="28"/>
+    </row>
+    <row r="54" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="53"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G54" s="27" t="s">
+      <c r="G54" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="H54" s="64"/>
-    </row>
-    <row r="55" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="66"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="15"/>
+      <c r="H54" s="93"/>
+      <c r="I54" s="28"/>
+    </row>
+    <row r="55" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="53"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="59"/>
       <c r="F55" s="8" t="s">
         <v>124</v>
       </c>
       <c r="G55" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H55" s="64"/>
-    </row>
-    <row r="56" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="66"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="15"/>
+      <c r="H55" s="93"/>
+      <c r="I55" s="28"/>
+    </row>
+    <row r="56" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="53"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="59"/>
       <c r="F56" s="8" t="s">
         <v>126</v>
       </c>
       <c r="G56" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H56" s="64"/>
-    </row>
-    <row r="57" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="66"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="15"/>
+      <c r="H56" s="93"/>
+      <c r="I56" s="28"/>
+    </row>
+    <row r="57" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="53"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="59"/>
       <c r="F57" s="8" t="s">
         <v>128</v>
       </c>
       <c r="G57" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="H57" s="64"/>
-    </row>
-    <row r="58" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="66"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="15"/>
+      <c r="H57" s="93"/>
+      <c r="I57" s="28"/>
+    </row>
+    <row r="58" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="53"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="59"/>
       <c r="F58" s="8" t="s">
         <v>130</v>
       </c>
       <c r="G58" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H58" s="64"/>
-    </row>
-    <row r="59" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="66"/>
-      <c r="B59" s="66"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="15"/>
+      <c r="H58" s="93"/>
+      <c r="I58" s="28"/>
+    </row>
+    <row r="59" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="53"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="59"/>
       <c r="F59" s="8" t="s">
         <v>132</v>
       </c>
       <c r="G59" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="H59" s="64"/>
-    </row>
-    <row r="60" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="66"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="31" t="s">
+      <c r="H59" s="93"/>
+      <c r="I59" s="28"/>
+    </row>
+    <row r="60" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="53"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="G60" s="32" t="s">
+      <c r="G60" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="H60" s="64"/>
-    </row>
-    <row r="61" spans="1:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="65">
+      <c r="H60" s="93"/>
+      <c r="I60" s="28"/>
+    </row>
+    <row r="61" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
         <v>12</v>
       </c>
-      <c r="B61" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65" t="s">
+      <c r="B61" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="F61" s="26" t="s">
+      <c r="F61" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="G61" s="26" t="s">
+      <c r="G61" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H61" s="68"/>
-    </row>
-    <row r="62" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="66"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="26" t="s">
+      <c r="H61" s="38"/>
+      <c r="I61" s="46" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="53"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G62" s="26" t="s">
+      <c r="G62" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H62" s="68"/>
-    </row>
-    <row r="63" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="66"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="26" t="s">
+      <c r="H62" s="38"/>
+      <c r="I62" s="47"/>
+    </row>
+    <row r="63" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="53"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G63" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="G63" s="26" t="s">
+      <c r="H63" s="38"/>
+      <c r="I63" s="47"/>
+    </row>
+    <row r="64" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A64" s="53"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="H63" s="68"/>
-    </row>
-    <row r="64" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A64" s="66"/>
-      <c r="B64" s="66"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="26" t="s">
+      <c r="G64" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="G64" s="26" t="s">
+      <c r="H64" s="38"/>
+      <c r="I64" s="47"/>
+    </row>
+    <row r="65" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="53"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="H64" s="68"/>
-    </row>
-    <row r="65" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="66"/>
-      <c r="B65" s="66"/>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="26" t="s">
+      <c r="G65" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="G65" s="26" t="s">
+      <c r="H65" s="38"/>
+      <c r="I65" s="47"/>
+    </row>
+    <row r="66" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="53"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="H65" s="68"/>
-    </row>
-    <row r="66" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="66"/>
-      <c r="B66" s="66"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="26" t="s">
+      <c r="G66" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="G66" s="26" t="s">
+      <c r="H66" s="38"/>
+      <c r="I66" s="47"/>
+    </row>
+    <row r="67" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="53"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="H66" s="68"/>
-    </row>
-    <row r="67" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="66"/>
-      <c r="B67" s="66"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="26" t="s">
+      <c r="G67" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="G67" s="26" t="s">
+      <c r="H67" s="38"/>
+      <c r="I67" s="47"/>
+    </row>
+    <row r="68" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="53"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="H67" s="68"/>
-    </row>
-    <row r="68" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="66"/>
-      <c r="B68" s="66"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="26" t="s">
+      <c r="G68" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G68" s="26" t="s">
+      <c r="H68" s="38"/>
+      <c r="I68" s="47"/>
+    </row>
+    <row r="69" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="53"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="H68" s="68"/>
-    </row>
-    <row r="69" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="66"/>
-      <c r="B69" s="66"/>
-      <c r="C69" s="66"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="26" t="s">
+      <c r="G69" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G69" s="26" t="s">
+      <c r="H69" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="I69" s="47"/>
+    </row>
+    <row r="70" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A70" s="53"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="H69" s="69" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="66"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="26" t="s">
+      <c r="G70" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="G70" s="26" t="s">
+      <c r="H70" s="38"/>
+      <c r="I70" s="47"/>
+    </row>
+    <row r="71" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="53"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="H70" s="68"/>
-    </row>
-    <row r="71" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="66"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="66"/>
-      <c r="D71" s="66"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="26" t="s">
+      <c r="G71" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G71" s="26" t="s">
+      <c r="H71" s="38"/>
+      <c r="I71" s="47"/>
+    </row>
+    <row r="72" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="53"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="H71" s="68"/>
-    </row>
-    <row r="72" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="66"/>
-      <c r="B72" s="66"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="26" t="s">
+      <c r="G72" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="G72" s="26" t="s">
+      <c r="H72" s="38"/>
+      <c r="I72" s="47"/>
+    </row>
+    <row r="73" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="53"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="H72" s="68"/>
-    </row>
-    <row r="73" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="66"/>
-      <c r="B73" s="66"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="26" t="s">
+      <c r="G73" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="G73" s="26" t="s">
+      <c r="H73" s="38"/>
+      <c r="I73" s="47"/>
+    </row>
+    <row r="74" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="53"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="H73" s="68"/>
-    </row>
-    <row r="74" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="66"/>
-      <c r="B74" s="66"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="26" t="s">
+      <c r="G74" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="G74" s="26" t="s">
+      <c r="H74" s="38"/>
+      <c r="I74" s="47"/>
+    </row>
+    <row r="75" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="53"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H74" s="68"/>
-    </row>
-    <row r="75" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="66"/>
-      <c r="B75" s="66"/>
-      <c r="C75" s="66"/>
-      <c r="D75" s="66"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="26" t="s">
+      <c r="G75" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="G75" s="26" t="s">
+      <c r="H75" s="38"/>
+      <c r="I75" s="47"/>
+    </row>
+    <row r="76" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="53"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="H75" s="68"/>
-    </row>
-    <row r="76" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="66"/>
-      <c r="B76" s="66"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="26" t="s">
+      <c r="G76" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="G76" s="26" t="s">
+      <c r="H76" s="38"/>
+      <c r="I76" s="47"/>
+    </row>
+    <row r="77" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="53"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="H76" s="68"/>
-    </row>
-    <row r="77" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="66"/>
-      <c r="B77" s="66"/>
-      <c r="C77" s="66"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="26" t="s">
+      <c r="G77" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="G77" s="26" t="s">
+      <c r="H77" s="38"/>
+      <c r="I77" s="47"/>
+    </row>
+    <row r="78" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="53"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H77" s="68"/>
-    </row>
-    <row r="78" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="66"/>
-      <c r="B78" s="66"/>
-      <c r="C78" s="66"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="26" t="s">
+      <c r="G78" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="G78" s="26" t="s">
+      <c r="H78" s="38"/>
+      <c r="I78" s="47"/>
+    </row>
+    <row r="79" spans="1:9" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="53"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="H78" s="68"/>
-    </row>
-    <row r="79" spans="1:8" ht="118.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="66"/>
-      <c r="B79" s="66"/>
-      <c r="C79" s="66"/>
-      <c r="D79" s="66"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="26" t="s">
+      <c r="G79" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="G79" s="26" t="s">
+      <c r="H79" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="I79" s="47"/>
+    </row>
+    <row r="80" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="53"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="53"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="H79" s="69" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="66"/>
-      <c r="B80" s="66"/>
-      <c r="C80" s="66"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="26" t="s">
+      <c r="G80" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="G80" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="H80" s="68"/>
-    </row>
-    <row r="81" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A81" s="66"/>
-      <c r="B81" s="66"/>
-      <c r="C81" s="66"/>
-      <c r="D81" s="66"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="26" t="s">
-        <v>179</v>
+      <c r="H80" s="38"/>
+      <c r="I80" s="48"/>
+    </row>
+    <row r="81" spans="1:9" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="52">
+        <v>13</v>
+      </c>
+      <c r="B81" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="C81" s="52"/>
+      <c r="D81" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="F81" s="34" t="s">
+        <v>216</v>
       </c>
       <c r="G81" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="H81" s="68"/>
-    </row>
-    <row r="82" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A82" s="66"/>
-      <c r="B82" s="66"/>
-      <c r="C82" s="66"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="G82" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="H82" s="68"/>
-    </row>
-    <row r="83" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A83" s="66"/>
-      <c r="B83" s="66"/>
-      <c r="C83" s="66"/>
-      <c r="D83" s="66"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="G83" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="H83" s="68"/>
-    </row>
-    <row r="84" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A84" s="66"/>
-      <c r="B84" s="66"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="G84" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="H84" s="68"/>
-    </row>
-    <row r="85" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="67"/>
-      <c r="B85" s="67"/>
-      <c r="C85" s="67"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="26" t="s">
-        <v>187</v>
+        <v>217</v>
+      </c>
+      <c r="H81" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I81" s="46" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="A82" s="53"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="G82" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="H82" s="62"/>
+      <c r="I82" s="47"/>
+    </row>
+    <row r="83" spans="1:9" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="53"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="53"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="H83" s="62"/>
+      <c r="I83" s="47"/>
+    </row>
+    <row r="84" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="54"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="H84" s="63"/>
+      <c r="I84" s="48"/>
+    </row>
+    <row r="85" spans="1:9" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="61">
+        <v>14</v>
+      </c>
+      <c r="B85" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="C85" s="52"/>
+      <c r="D85" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="F85" s="34" t="s">
+        <v>216</v>
       </c>
       <c r="G85" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="H85" s="68"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="53" t="s">
-        <v>190</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="H85" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I85" s="28"/>
+    </row>
+    <row r="86" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A86" s="62"/>
       <c r="B86" s="53"/>
       <c r="C86" s="53"/>
       <c r="D86" s="53"/>
-      <c r="E86" s="53"/>
-      <c r="F86" s="53"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="54"/>
-    </row>
-    <row r="87" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="74">
-        <v>13</v>
-      </c>
-      <c r="B87" s="70" t="s">
+      <c r="E86" s="59"/>
+      <c r="F86" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="H86" s="62"/>
+      <c r="I86" s="28"/>
+    </row>
+    <row r="87" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A87" s="62"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H87" s="62"/>
+      <c r="I87" s="28"/>
+    </row>
+    <row r="88" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A88" s="63"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="H88" s="63"/>
+      <c r="I88" s="28"/>
+    </row>
+    <row r="89" spans="1:9" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="101">
+        <v>15</v>
+      </c>
+      <c r="B89" s="101" t="s">
+        <v>231</v>
+      </c>
+      <c r="C89" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="D89" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H89" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="I89" s="28"/>
+    </row>
+    <row r="90" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A90" s="101"/>
+      <c r="B90" s="101"/>
+      <c r="C90" s="101"/>
+      <c r="D90" s="101"/>
+      <c r="E90" s="96"/>
+      <c r="F90" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H90" s="50"/>
+      <c r="I90" s="28"/>
+    </row>
+    <row r="91" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A91" s="101"/>
+      <c r="B91" s="101"/>
+      <c r="C91" s="101"/>
+      <c r="D91" s="101"/>
+      <c r="E91" s="96"/>
+      <c r="F91" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H91" s="50"/>
+      <c r="I91" s="28"/>
+    </row>
+    <row r="92" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="101"/>
+      <c r="B92" s="101"/>
+      <c r="C92" s="101"/>
+      <c r="D92" s="101"/>
+      <c r="E92" s="96"/>
+      <c r="F92" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="H92" s="50"/>
+      <c r="I92" s="28"/>
+    </row>
+    <row r="93" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="101"/>
+      <c r="B93" s="101"/>
+      <c r="C93" s="101"/>
+      <c r="D93" s="101"/>
+      <c r="E93" s="96"/>
+      <c r="F93" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="H93" s="51"/>
+      <c r="I93" s="28"/>
+    </row>
+    <row r="94" spans="1:9" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="101">
+        <v>16</v>
+      </c>
+      <c r="B94" s="101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C94" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="D94" s="101" t="s">
+        <v>240</v>
+      </c>
+      <c r="E94" s="96" t="s">
+        <v>212</v>
+      </c>
+      <c r="F94" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H94" s="32"/>
+      <c r="I94" s="28"/>
+    </row>
+    <row r="95" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A95" s="101"/>
+      <c r="B95" s="101"/>
+      <c r="C95" s="101"/>
+      <c r="D95" s="101"/>
+      <c r="E95" s="96"/>
+      <c r="F95" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="G95" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="H95" s="32"/>
+      <c r="I95" s="28"/>
+    </row>
+    <row r="96" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A96" s="101"/>
+      <c r="B96" s="101"/>
+      <c r="C96" s="101"/>
+      <c r="D96" s="101"/>
+      <c r="E96" s="96"/>
+      <c r="F96" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="G96" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="H96" s="32"/>
+      <c r="I96" s="28"/>
+    </row>
+    <row r="97" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="B97" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="C97" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="D97" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="E97" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H97" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="I97" s="28"/>
+    </row>
+    <row r="98" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A98" s="53"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="53"/>
+      <c r="E98" s="59"/>
+      <c r="F98" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="H98" s="50"/>
+      <c r="I98" s="28"/>
+    </row>
+    <row r="99" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="53"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="53"/>
+      <c r="E99" s="59"/>
+      <c r="F99" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G99" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="H99" s="50"/>
+      <c r="I99" s="28"/>
+    </row>
+    <row r="100" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="53"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="53"/>
+      <c r="D100" s="53"/>
+      <c r="E100" s="59"/>
+      <c r="F100" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="H100" s="50"/>
+      <c r="I100" s="28"/>
+    </row>
+    <row r="101" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="54"/>
+      <c r="B101" s="54"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="60"/>
+      <c r="F101" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="H101" s="51"/>
+      <c r="I101" s="28"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="B102" s="67"/>
+      <c r="C102" s="67"/>
+      <c r="D102" s="67"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="67"/>
+      <c r="H102" s="67"/>
+      <c r="I102" s="28"/>
+    </row>
+    <row r="103" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="97">
+        <v>18</v>
+      </c>
+      <c r="B103" s="98" t="s">
+        <v>179</v>
+      </c>
+      <c r="C103" s="98"/>
+      <c r="D103" s="98" t="s">
+        <v>180</v>
+      </c>
+      <c r="E103" s="96" t="s">
+        <v>71</v>
+      </c>
+      <c r="F103" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G103" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="H103" s="40"/>
+      <c r="I103" s="46" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A104" s="97"/>
+      <c r="B104" s="99"/>
+      <c r="C104" s="99"/>
+      <c r="D104" s="99"/>
+      <c r="E104" s="96"/>
+      <c r="F104" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G104" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H104" s="41"/>
+      <c r="I104" s="47"/>
+    </row>
+    <row r="105" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+      <c r="A105" s="97"/>
+      <c r="B105" s="100"/>
+      <c r="C105" s="100"/>
+      <c r="D105" s="100"/>
+      <c r="E105" s="96"/>
+      <c r="F105" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="G105" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="H105" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="I105" s="48"/>
+    </row>
+    <row r="106" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="97">
+        <v>19</v>
+      </c>
+      <c r="B106" s="98" t="s">
+        <v>190</v>
+      </c>
+      <c r="C106" s="98"/>
+      <c r="D106" s="98" t="s">
+        <v>180</v>
+      </c>
+      <c r="E106" s="96" t="s">
+        <v>71</v>
+      </c>
+      <c r="F106" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G106" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="H106" s="43"/>
+      <c r="I106" s="46" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A107" s="97"/>
+      <c r="B107" s="99"/>
+      <c r="C107" s="99"/>
+      <c r="D107" s="99"/>
+      <c r="E107" s="96"/>
+      <c r="F107" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G107" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H107" s="43"/>
+      <c r="I107" s="47"/>
+    </row>
+    <row r="108" spans="1:9" ht="69" x14ac:dyDescent="0.3">
+      <c r="A108" s="97"/>
+      <c r="B108" s="100"/>
+      <c r="C108" s="100"/>
+      <c r="D108" s="100"/>
+      <c r="E108" s="96"/>
+      <c r="F108" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="C87" s="70"/>
-      <c r="D87" s="70" t="s">
+      <c r="G108" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="E87" s="13" t="s">
+      <c r="H108" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="I108" s="48"/>
+    </row>
+    <row r="109" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="97">
+        <v>20</v>
+      </c>
+      <c r="B109" s="98" t="s">
+        <v>185</v>
+      </c>
+      <c r="C109" s="98"/>
+      <c r="D109" s="98" t="s">
+        <v>180</v>
+      </c>
+      <c r="E109" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="F87" s="41" t="s">
+      <c r="F109" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G109" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="H109" s="41"/>
+      <c r="I109" s="46" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A110" s="97"/>
+      <c r="B110" s="99"/>
+      <c r="C110" s="99"/>
+      <c r="D110" s="99"/>
+      <c r="E110" s="96"/>
+      <c r="F110" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G110" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H110" s="41"/>
+      <c r="I110" s="47"/>
+    </row>
+    <row r="111" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="A111" s="97"/>
+      <c r="B111" s="100"/>
+      <c r="C111" s="100"/>
+      <c r="D111" s="100"/>
+      <c r="E111" s="96"/>
+      <c r="F111" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="G111" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="H111" s="41"/>
+      <c r="I111" s="48"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="B112" s="67"/>
+      <c r="C112" s="67"/>
+      <c r="D112" s="67"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="67"/>
+      <c r="G112" s="67"/>
+      <c r="H112" s="67"/>
+      <c r="I112" s="28"/>
+    </row>
+    <row r="113" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="105">
+        <v>21</v>
+      </c>
+      <c r="B113" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="G87" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="H87" s="75"/>
-    </row>
-    <row r="88" spans="1:8" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A88" s="74"/>
-      <c r="B88" s="71"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="71"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="G88" s="41" t="s">
+      <c r="C113" s="52"/>
+      <c r="D113" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="E113" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F113" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G113" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="H113" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="I113" s="28"/>
+    </row>
+    <row r="114" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="106"/>
+      <c r="B114" s="53"/>
+      <c r="C114" s="53"/>
+      <c r="D114" s="53"/>
+      <c r="E114" s="59"/>
+      <c r="F114" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="G114" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="H114" s="103"/>
+      <c r="I114" s="28"/>
+    </row>
+    <row r="115" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="106"/>
+      <c r="B115" s="53"/>
+      <c r="C115" s="53"/>
+      <c r="D115" s="53"/>
+      <c r="E115" s="59"/>
+      <c r="F115" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="G115" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="H115" s="103"/>
+      <c r="I115" s="28"/>
+    </row>
+    <row r="116" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A116" s="107"/>
+      <c r="B116" s="54"/>
+      <c r="C116" s="54"/>
+      <c r="D116" s="54"/>
+      <c r="E116" s="60"/>
+      <c r="F116" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="G116" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="H116" s="104"/>
+      <c r="I116" s="28"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="H88" s="76"/>
-    </row>
-    <row r="89" spans="1:8" ht="69" x14ac:dyDescent="0.3">
-      <c r="A89" s="74"/>
-      <c r="B89" s="72"/>
-      <c r="C89" s="72"/>
-      <c r="D89" s="72"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="G89" s="73" t="s">
-        <v>196</v>
-      </c>
-      <c r="H89" s="77" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="74">
-        <v>14</v>
-      </c>
-      <c r="B90" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="C90" s="70"/>
-      <c r="D90" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="E90" s="13" t="s">
+      <c r="B117" s="67"/>
+      <c r="C117" s="67"/>
+      <c r="D117" s="67"/>
+      <c r="E117" s="67"/>
+      <c r="F117" s="67"/>
+      <c r="G117" s="67"/>
+      <c r="H117" s="67"/>
+      <c r="I117" s="28"/>
+    </row>
+    <row r="118" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="105">
+        <v>22</v>
+      </c>
+      <c r="B118" s="105" t="s">
+        <v>206</v>
+      </c>
+      <c r="C118" s="105"/>
+      <c r="D118" s="105" t="s">
+        <v>180</v>
+      </c>
+      <c r="E118" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="F90" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="G90" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="H90" s="78"/>
-    </row>
-    <row r="91" spans="1:8" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A91" s="74"/>
-      <c r="B91" s="71"/>
-      <c r="C91" s="71"/>
-      <c r="D91" s="71"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="G91" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="H91" s="78"/>
-    </row>
-    <row r="92" spans="1:8" ht="69" x14ac:dyDescent="0.3">
-      <c r="A92" s="74"/>
-      <c r="B92" s="72"/>
-      <c r="C92" s="72"/>
-      <c r="D92" s="72"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="73" t="s">
-        <v>203</v>
-      </c>
-      <c r="G92" s="73" t="s">
-        <v>204</v>
-      </c>
-      <c r="H92" s="77" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="74">
-        <v>15</v>
-      </c>
-      <c r="B93" s="70" t="s">
-        <v>197</v>
-      </c>
-      <c r="C93" s="70"/>
-      <c r="D93" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="E93" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F93" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="G93" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="H93" s="76"/>
-    </row>
-    <row r="94" spans="1:8" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A94" s="74"/>
-      <c r="B94" s="71"/>
-      <c r="C94" s="71"/>
-      <c r="D94" s="71"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="G94" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="H94" s="76"/>
-    </row>
-    <row r="95" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A95" s="74"/>
-      <c r="B95" s="72"/>
-      <c r="C95" s="72"/>
-      <c r="D95" s="72"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="73" t="s">
-        <v>198</v>
-      </c>
-      <c r="G95" s="73" t="s">
-        <v>199</v>
-      </c>
-      <c r="H95" s="76"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="53" t="s">
-        <v>206</v>
-      </c>
-      <c r="B96" s="53"/>
-      <c r="C96" s="53"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="53"/>
-      <c r="G96" s="53"/>
-      <c r="H96" s="54"/>
-    </row>
-    <row r="97" spans="1:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="10">
-        <v>16</v>
-      </c>
-      <c r="B97" s="65" t="s">
-        <v>212</v>
-      </c>
-      <c r="C97" s="65"/>
-      <c r="D97" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="E97" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F97" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="G97" s="48" t="s">
+      <c r="F118" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="H97" s="82" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="11"/>
-      <c r="B98" s="66"/>
-      <c r="C98" s="66"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="47" t="s">
+      <c r="G118" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="H118" s="44"/>
+      <c r="I118" s="46" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A119" s="107"/>
+      <c r="B119" s="107"/>
+      <c r="C119" s="107"/>
+      <c r="D119" s="107"/>
+      <c r="E119" s="107"/>
+      <c r="F119" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="G98" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="H98" s="83"/>
-    </row>
-    <row r="99" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="11"/>
-      <c r="B99" s="66"/>
-      <c r="C99" s="66"/>
-      <c r="D99" s="66"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="47" t="s">
+      <c r="G119" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="G99" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="H99" s="83"/>
-    </row>
-    <row r="100" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A100" s="12"/>
-      <c r="B100" s="67"/>
-      <c r="C100" s="67"/>
-      <c r="D100" s="67"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="79" t="s">
-        <v>216</v>
-      </c>
-      <c r="G100" s="80" t="s">
-        <v>215</v>
-      </c>
-      <c r="H100" s="84"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="B101" s="53"/>
-      <c r="C101" s="53"/>
-      <c r="D101" s="53"/>
-      <c r="E101" s="53"/>
-      <c r="F101" s="53"/>
-      <c r="G101" s="53"/>
-      <c r="H101" s="54"/>
-    </row>
-    <row r="102" spans="1:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="10">
-        <v>17</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E102" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F102" s="79" t="s">
-        <v>219</v>
-      </c>
-      <c r="G102" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="H102" s="33"/>
-    </row>
-    <row r="103" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="81" t="s">
-        <v>220</v>
-      </c>
-      <c r="G103" s="81" t="s">
-        <v>222</v>
-      </c>
-      <c r="H103" s="33"/>
+      <c r="H119" s="44"/>
+      <c r="I119" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="104">
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="E97:E100"/>
-    <mergeCell ref="D97:D100"/>
-    <mergeCell ref="C97:C100"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="A101:H101"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="E93:E95"/>
-    <mergeCell ref="A96:H96"/>
-    <mergeCell ref="H97:H100"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="C61:C85"/>
-    <mergeCell ref="B61:B85"/>
-    <mergeCell ref="A61:A85"/>
-    <mergeCell ref="A86:H86"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="E87:E89"/>
+  <mergeCells count="144">
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="E113:E116"/>
+    <mergeCell ref="D113:D116"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="A117:H117"/>
+    <mergeCell ref="B61:B80"/>
+    <mergeCell ref="A61:A80"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="H81:H84"/>
+    <mergeCell ref="H85:H88"/>
+    <mergeCell ref="E89:E93"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="C89:C93"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="H97:H101"/>
+    <mergeCell ref="E97:E101"/>
     <mergeCell ref="H41:H43"/>
     <mergeCell ref="H44:H60"/>
-    <mergeCell ref="E61:E85"/>
-    <mergeCell ref="D61:D85"/>
+    <mergeCell ref="E61:E80"/>
+    <mergeCell ref="D61:D80"/>
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="H32:H34"/>
     <mergeCell ref="H35:H36"/>
     <mergeCell ref="H38:H40"/>
     <mergeCell ref="E44:E60"/>
     <mergeCell ref="D44:D60"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
     <mergeCell ref="C44:C60"/>
     <mergeCell ref="B44:B60"/>
     <mergeCell ref="A44:A60"/>
@@ -3391,6 +4121,17 @@
     <mergeCell ref="C23:C28"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="B23:B28"/>
     <mergeCell ref="H9:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A1:H1"/>
@@ -3411,21 +4152,6 @@
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="D9:D13"/>
     <mergeCell ref="E9:E13"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="E38:E40"/>
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="C38:C40"/>
     <mergeCell ref="B38:B40"/>
@@ -3435,11 +4161,54 @@
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I23:I28"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I38:I40"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E81:E84"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="E85:E88"/>
+    <mergeCell ref="D85:D88"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="I103:I105"/>
+    <mergeCell ref="I106:I108"/>
+    <mergeCell ref="I109:I111"/>
+    <mergeCell ref="I118:I119"/>
+    <mergeCell ref="I61:I80"/>
+    <mergeCell ref="I81:I84"/>
+    <mergeCell ref="H89:H93"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="C61:C80"/>
+    <mergeCell ref="E106:E108"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="A112:H112"/>
+    <mergeCell ref="H113:H116"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="A118:A119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
